--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1165847.54415826</v>
+        <v>-1168656.321356545</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10871172.54314996</v>
+        <v>10871172.54314995</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.0516147295368</v>
       </c>
       <c r="H2" t="n">
-        <v>316.4204908877587</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>123.6894783786285</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8.462026260311319</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>157.7226091094247</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1655630849886</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>120.8088066696123</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>8.955274480601565</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.1390602878785</v>
       </c>
       <c r="H3" t="n">
-        <v>100.6029265194729</v>
+        <v>100.602926519473</v>
       </c>
       <c r="I3" t="n">
-        <v>47.92739394195325</v>
+        <v>47.92739394195348</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>25.37585377017921</v>
+        <v>25.37585377017963</v>
       </c>
       <c r="S3" t="n">
-        <v>149.3109129151027</v>
+        <v>149.3109129151028</v>
       </c>
       <c r="T3" t="n">
         <v>195.3099222543381</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.981203174509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.2493442537775</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>102.2865080059364</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>21.96800391142737</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>224.8874913699129</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>42.62982416191879</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0403094750766</v>
+        <v>13.05161472953678</v>
       </c>
       <c r="H5" t="n">
-        <v>316.4204908877587</v>
+        <v>316.4204908877588</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>123.6894783786285</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>8.462026260311319</v>
+        <v>8.462026260312115</v>
       </c>
       <c r="S5" t="n">
-        <v>157.7226091094244</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>213.2415595701749</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1655630849886</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>136.1390602878785</v>
       </c>
       <c r="H6" t="n">
-        <v>100.6029265194729</v>
+        <v>100.602926519473</v>
       </c>
       <c r="I6" t="n">
-        <v>47.92739394195325</v>
+        <v>47.92739394195348</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>25.37585377017921</v>
+        <v>25.37585377017963</v>
       </c>
       <c r="S6" t="n">
-        <v>149.3109129151027</v>
+        <v>149.3109129151028</v>
       </c>
       <c r="T6" t="n">
         <v>195.3099222543381</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>10.4785178248625</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>125.0837511408431</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.60705752114076</v>
+        <v>1.607057521141243</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>131.890182233394</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.6310911877691</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>235.799694515888</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>276.8965001340224</v>
+        <v>307.9188714124408</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>56.64799252494605</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>260.4681200278104</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>34.59690177050144</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892535</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>109.723488288731</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>128.5251451036098</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>217.0479268348176</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>72.23766645968759</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>116.6807033268976</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>95.81917536083702</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.600826611594925</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,10 +2482,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0109307051772</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>83.53432244437066</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>214.4033048062049</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3196,7 +3196,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545298</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3712,7 +3712,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1169.284661552538</v>
+        <v>1750.096423008184</v>
       </c>
       <c r="C2" t="n">
-        <v>1169.284661552538</v>
+        <v>1750.096423008184</v>
       </c>
       <c r="D2" t="n">
-        <v>1169.284661552538</v>
+        <v>1391.830724401433</v>
       </c>
       <c r="E2" t="n">
-        <v>783.4964089542934</v>
+        <v>1006.042471803189</v>
       </c>
       <c r="F2" t="n">
-        <v>372.5105041646858</v>
+        <v>595.0565670135813</v>
       </c>
       <c r="G2" t="n">
-        <v>372.5105041646858</v>
+        <v>177.8327137514229</v>
       </c>
       <c r="H2" t="n">
-        <v>52.89384670230322</v>
+        <v>177.8327137514229</v>
       </c>
       <c r="I2" t="n">
-        <v>52.89384670230322</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J2" t="n">
-        <v>230.2146704401677</v>
+        <v>230.2146704401666</v>
       </c>
       <c r="K2" t="n">
-        <v>616.7174237892525</v>
+        <v>616.7174237892499</v>
       </c>
       <c r="L2" t="n">
-        <v>1145.270325069726</v>
+        <v>1145.270325069737</v>
       </c>
       <c r="M2" t="n">
-        <v>1308.552243363144</v>
+        <v>1308.552243363153</v>
       </c>
       <c r="N2" t="n">
-        <v>1479.090042179373</v>
+        <v>1479.090042179379</v>
       </c>
       <c r="O2" t="n">
-        <v>2003.780967921575</v>
+        <v>2003.780967921579</v>
       </c>
       <c r="P2" t="n">
-        <v>2413.918150981416</v>
+        <v>2413.918150981418</v>
       </c>
       <c r="Q2" t="n">
-        <v>2644.692335115161</v>
+        <v>2644.692335115162</v>
       </c>
       <c r="R2" t="n">
-        <v>2636.144833842119</v>
+        <v>2644.692335115162</v>
       </c>
       <c r="S2" t="n">
-        <v>2636.144833842119</v>
+        <v>2485.376568337965</v>
       </c>
       <c r="T2" t="n">
-        <v>2636.144833842119</v>
+        <v>2485.376568337965</v>
       </c>
       <c r="U2" t="n">
-        <v>2382.442244867383</v>
+        <v>2485.376568337965</v>
       </c>
       <c r="V2" t="n">
-        <v>2051.379357523812</v>
+        <v>2485.376568337965</v>
       </c>
       <c r="W2" t="n">
-        <v>1929.350259877739</v>
+        <v>2132.607913067851</v>
       </c>
       <c r="X2" t="n">
-        <v>1555.884501616659</v>
+        <v>1759.142154806771</v>
       </c>
       <c r="Y2" t="n">
-        <v>1555.884501616659</v>
+        <v>1750.096423008184</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>969.5981276629532</v>
+        <v>969.5981276629536</v>
       </c>
       <c r="C3" t="n">
-        <v>795.1450983818262</v>
+        <v>795.1450983818266</v>
       </c>
       <c r="D3" t="n">
-        <v>646.2106887205748</v>
+        <v>646.2106887205753</v>
       </c>
       <c r="E3" t="n">
-        <v>486.9732337151192</v>
+        <v>486.9732337151197</v>
       </c>
       <c r="F3" t="n">
-        <v>340.4386757420044</v>
+        <v>340.4386757420048</v>
       </c>
       <c r="G3" t="n">
-        <v>202.9244734310164</v>
+        <v>202.9244734310167</v>
       </c>
       <c r="H3" t="n">
-        <v>101.3053557345793</v>
+        <v>101.3053557345795</v>
       </c>
       <c r="I3" t="n">
-        <v>52.89384670230322</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J3" t="n">
-        <v>52.89384670230322</v>
+        <v>164.8115348683176</v>
       </c>
       <c r="K3" t="n">
-        <v>370.7998448799317</v>
+        <v>482.7175330459449</v>
       </c>
       <c r="L3" t="n">
-        <v>859.6680877534757</v>
+        <v>971.5857759194873</v>
       </c>
       <c r="M3" t="n">
-        <v>1482.133490401854</v>
+        <v>1133.003165455364</v>
       </c>
       <c r="N3" t="n">
-        <v>1795.564968097181</v>
+        <v>1688.263342002138</v>
       </c>
       <c r="O3" t="n">
-        <v>2328.023603211762</v>
+        <v>2220.721977116717</v>
       </c>
       <c r="P3" t="n">
-        <v>2423.087391642753</v>
+        <v>2631.063906501245</v>
       </c>
       <c r="Q3" t="n">
-        <v>2644.692335115161</v>
+        <v>2644.692335115162</v>
       </c>
       <c r="R3" t="n">
-        <v>2619.060159589727</v>
+        <v>2619.060159589728</v>
       </c>
       <c r="S3" t="n">
-        <v>2468.241055635078</v>
+        <v>2468.241055635079</v>
       </c>
       <c r="T3" t="n">
-        <v>2270.958305883221</v>
+        <v>2270.958305883222</v>
       </c>
       <c r="U3" t="n">
-        <v>2042.814728613452</v>
+        <v>2042.814728613453</v>
       </c>
       <c r="V3" t="n">
         <v>1807.66262038171</v>
@@ -4449,10 +4449,10 @@
         <v>1553.425263653508</v>
       </c>
       <c r="X3" t="n">
-        <v>1345.573763447975</v>
+        <v>1345.573763447976</v>
       </c>
       <c r="Y3" t="n">
-        <v>1137.813464683021</v>
+        <v>1137.813464683022</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.6947845479693</v>
+        <v>369.7431232126032</v>
       </c>
       <c r="C4" t="n">
-        <v>648.7586016200624</v>
+        <v>200.8069402846963</v>
       </c>
       <c r="D4" t="n">
-        <v>648.7586016200624</v>
+        <v>200.8069402846963</v>
       </c>
       <c r="E4" t="n">
-        <v>648.7586016200624</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="F4" t="n">
-        <v>501.8686541221521</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="G4" t="n">
-        <v>333.2007721276985</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="H4" t="n">
-        <v>178.4034546996404</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="I4" t="n">
-        <v>75.08374964313896</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J4" t="n">
-        <v>52.89384670230322</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="K4" t="n">
-        <v>146.9915064725763</v>
+        <v>146.9915064725757</v>
       </c>
       <c r="L4" t="n">
-        <v>322.9305488911132</v>
+        <v>322.9305488911118</v>
       </c>
       <c r="M4" t="n">
-        <v>518.822723741941</v>
+        <v>518.8227237419387</v>
       </c>
       <c r="N4" t="n">
-        <v>715.4916369372086</v>
+        <v>715.4916369372054</v>
       </c>
       <c r="O4" t="n">
-        <v>881.1309145445605</v>
+        <v>881.1309145445565</v>
       </c>
       <c r="P4" t="n">
-        <v>999.3432493782091</v>
+        <v>999.3432493782043</v>
       </c>
       <c r="Q4" t="n">
-        <v>999.3432493782091</v>
+        <v>999.3432493782043</v>
       </c>
       <c r="R4" t="n">
-        <v>999.3432493782091</v>
+        <v>999.3432493782043</v>
       </c>
       <c r="S4" t="n">
-        <v>999.3432493782091</v>
+        <v>999.3432493782043</v>
       </c>
       <c r="T4" t="n">
-        <v>999.3432493782091</v>
+        <v>999.3432493782043</v>
       </c>
       <c r="U4" t="n">
-        <v>999.3432493782091</v>
+        <v>999.3432493782043</v>
       </c>
       <c r="V4" t="n">
-        <v>999.3432493782091</v>
+        <v>999.3432493782043</v>
       </c>
       <c r="W4" t="n">
-        <v>999.3432493782091</v>
+        <v>999.3432493782043</v>
       </c>
       <c r="X4" t="n">
-        <v>999.3432493782091</v>
+        <v>772.1841671863731</v>
       </c>
       <c r="Y4" t="n">
-        <v>999.3432493782091</v>
+        <v>551.391588042843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1501.924258770804</v>
+        <v>939.4815014801868</v>
       </c>
       <c r="C5" t="n">
-        <v>1132.961741830393</v>
+        <v>939.4815014801868</v>
       </c>
       <c r="D5" t="n">
-        <v>1132.961741830393</v>
+        <v>939.4815014801868</v>
       </c>
       <c r="E5" t="n">
-        <v>747.1734892321485</v>
+        <v>553.6932488819425</v>
       </c>
       <c r="F5" t="n">
-        <v>740.2279884829451</v>
+        <v>510.6328204355599</v>
       </c>
       <c r="G5" t="n">
-        <v>372.5105041646858</v>
+        <v>497.4493712138056</v>
       </c>
       <c r="H5" t="n">
-        <v>52.89384670230322</v>
+        <v>177.8327137514229</v>
       </c>
       <c r="I5" t="n">
-        <v>52.89384670230322</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J5" t="n">
-        <v>230.2146704401677</v>
+        <v>62.80902141981358</v>
       </c>
       <c r="K5" t="n">
-        <v>616.7174237892525</v>
+        <v>128.4078163234438</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.270325069726</v>
+        <v>660.1752863065188</v>
       </c>
       <c r="M5" t="n">
-        <v>1308.552243363144</v>
+        <v>1268.475602757839</v>
       </c>
       <c r="N5" t="n">
-        <v>1479.090042179373</v>
+        <v>1871.98685674193</v>
       </c>
       <c r="O5" t="n">
-        <v>2003.780967921575</v>
+        <v>2396.677782484129</v>
       </c>
       <c r="P5" t="n">
-        <v>2413.918150981416</v>
+        <v>2624.109991734724</v>
       </c>
       <c r="Q5" t="n">
-        <v>2644.692335115161</v>
+        <v>2644.692335115162</v>
       </c>
       <c r="R5" t="n">
         <v>2636.144833842119</v>
       </c>
       <c r="S5" t="n">
-        <v>2476.829067064923</v>
+        <v>2636.144833842119</v>
       </c>
       <c r="T5" t="n">
-        <v>2476.829067064923</v>
+        <v>2420.749319124771</v>
       </c>
       <c r="U5" t="n">
-        <v>2223.126478090187</v>
+        <v>2420.749319124771</v>
       </c>
       <c r="V5" t="n">
-        <v>1892.063590746616</v>
+        <v>2089.6864317812</v>
       </c>
       <c r="W5" t="n">
-        <v>1892.063590746616</v>
+        <v>2089.6864317812</v>
       </c>
       <c r="X5" t="n">
-        <v>1892.063590746616</v>
+        <v>1716.22067352012</v>
       </c>
       <c r="Y5" t="n">
-        <v>1501.924258770804</v>
+        <v>1326.081341544309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,58 +4620,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>969.5981276629537</v>
+        <v>969.598127662954</v>
       </c>
       <c r="C6" t="n">
-        <v>795.1450983818268</v>
+        <v>795.145098381827</v>
       </c>
       <c r="D6" t="n">
-        <v>646.2106887205755</v>
+        <v>646.2106887205757</v>
       </c>
       <c r="E6" t="n">
-        <v>486.9732337151199</v>
+        <v>486.9732337151203</v>
       </c>
       <c r="F6" t="n">
-        <v>340.4386757420049</v>
+        <v>340.4386757420052</v>
       </c>
       <c r="G6" t="n">
-        <v>202.9244734310165</v>
+        <v>202.9244734310168</v>
       </c>
       <c r="H6" t="n">
-        <v>101.3053557345792</v>
+        <v>101.3053557345795</v>
       </c>
       <c r="I6" t="n">
-        <v>52.89384670230322</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J6" t="n">
-        <v>52.89384670230322</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="K6" t="n">
-        <v>370.7998448799317</v>
+        <v>370.7998448799306</v>
       </c>
       <c r="L6" t="n">
-        <v>859.6680877534757</v>
+        <v>859.6680877534729</v>
       </c>
       <c r="M6" t="n">
-        <v>1021.085477289354</v>
+        <v>1021.08547728935</v>
       </c>
       <c r="N6" t="n">
-        <v>1480.286827143643</v>
+        <v>1480.286827143647</v>
       </c>
       <c r="O6" t="n">
-        <v>2012.745462258224</v>
+        <v>2012.745462258227</v>
       </c>
       <c r="P6" t="n">
-        <v>2423.087391642753</v>
+        <v>2423.087391642754</v>
       </c>
       <c r="Q6" t="n">
-        <v>2644.692335115161</v>
+        <v>2644.692335115162</v>
       </c>
       <c r="R6" t="n">
-        <v>2619.060159589727</v>
+        <v>2619.060159589728</v>
       </c>
       <c r="S6" t="n">
-        <v>2468.241055635078</v>
+        <v>2468.241055635079</v>
       </c>
       <c r="T6" t="n">
         <v>2270.958305883222</v>
@@ -4683,7 +4683,7 @@
         <v>1807.66262038171</v>
       </c>
       <c r="W6" t="n">
-        <v>1553.425263653508</v>
+        <v>1553.425263653509</v>
       </c>
       <c r="X6" t="n">
         <v>1345.573763447976</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.9004336125493</v>
+        <v>189.8254315161473</v>
       </c>
       <c r="C7" t="n">
-        <v>349.9004336125493</v>
+        <v>189.8254315161473</v>
       </c>
       <c r="D7" t="n">
-        <v>199.7837942002136</v>
+        <v>189.8254315161473</v>
       </c>
       <c r="E7" t="n">
-        <v>199.7837942002136</v>
+        <v>189.8254315161473</v>
       </c>
       <c r="F7" t="n">
-        <v>52.89384670230322</v>
+        <v>189.8254315161473</v>
       </c>
       <c r="G7" t="n">
-        <v>52.89384670230322</v>
+        <v>179.2410700768923</v>
       </c>
       <c r="H7" t="n">
-        <v>52.89384670230322</v>
+        <v>179.2410700768923</v>
       </c>
       <c r="I7" t="n">
-        <v>52.89384670230322</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J7" t="n">
-        <v>52.89384670230322</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="K7" t="n">
-        <v>146.9915064725763</v>
+        <v>146.9915064725757</v>
       </c>
       <c r="L7" t="n">
-        <v>322.9305488911132</v>
+        <v>322.9305488911118</v>
       </c>
       <c r="M7" t="n">
-        <v>518.822723741941</v>
+        <v>518.8227237419387</v>
       </c>
       <c r="N7" t="n">
-        <v>715.4916369372086</v>
+        <v>715.4916369372054</v>
       </c>
       <c r="O7" t="n">
-        <v>881.1309145445605</v>
+        <v>881.1309145445565</v>
       </c>
       <c r="P7" t="n">
-        <v>999.3432493782091</v>
+        <v>999.3432493782043</v>
       </c>
       <c r="Q7" t="n">
-        <v>997.7199589528144</v>
+        <v>997.7199589528091</v>
       </c>
       <c r="R7" t="n">
-        <v>997.7199589528144</v>
+        <v>864.4975526564515</v>
       </c>
       <c r="S7" t="n">
-        <v>997.7199589528144</v>
+        <v>864.4975526564515</v>
       </c>
       <c r="T7" t="n">
-        <v>997.7199589528144</v>
+        <v>638.6075615576948</v>
       </c>
       <c r="U7" t="n">
-        <v>997.7199589528144</v>
+        <v>638.6075615576948</v>
       </c>
       <c r="V7" t="n">
-        <v>997.7199589528144</v>
+        <v>638.6075615576948</v>
       </c>
       <c r="W7" t="n">
-        <v>759.5384493408063</v>
+        <v>638.6075615576948</v>
       </c>
       <c r="X7" t="n">
-        <v>531.548898442789</v>
+        <v>410.6180106596775</v>
       </c>
       <c r="Y7" t="n">
-        <v>531.548898442789</v>
+        <v>189.8254315161473</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2273.6774358797</v>
+        <v>1515.184507805111</v>
       </c>
       <c r="C8" t="n">
-        <v>1904.714918939289</v>
+        <v>1146.221990864699</v>
       </c>
       <c r="D8" t="n">
-        <v>1546.449220332538</v>
+        <v>787.9562922579487</v>
       </c>
       <c r="E8" t="n">
-        <v>1160.660967734294</v>
+        <v>787.9562922579487</v>
       </c>
       <c r="F8" t="n">
-        <v>749.6750629446863</v>
+        <v>781.0107915087452</v>
       </c>
       <c r="G8" t="n">
-        <v>332.5872811811137</v>
+        <v>363.9230097451727</v>
       </c>
       <c r="H8" t="n">
-        <v>52.89384670230322</v>
+        <v>52.89384670230317</v>
       </c>
       <c r="I8" t="n">
-        <v>52.89384670230322</v>
+        <v>52.89384670230317</v>
       </c>
       <c r="J8" t="n">
-        <v>74.12809669568652</v>
+        <v>241.5337457160395</v>
       </c>
       <c r="K8" t="n">
-        <v>156.6912512702789</v>
+        <v>645.000858736085</v>
       </c>
       <c r="L8" t="n">
-        <v>709.504509516478</v>
+        <v>784.3295145773382</v>
       </c>
       <c r="M8" t="n">
-        <v>1341.22232049979</v>
+        <v>971.0289274027458</v>
       </c>
       <c r="N8" t="n">
-        <v>1968.529988559636</v>
+        <v>1423.040123233886</v>
       </c>
       <c r="O8" t="n">
-        <v>2498.973889844039</v>
+        <v>1970.201328000963</v>
       </c>
       <c r="P8" t="n">
-        <v>2609.708215093566</v>
+        <v>2399.516374340258</v>
       </c>
       <c r="Q8" t="n">
-        <v>2644.692335115161</v>
+        <v>2644.692335115159</v>
       </c>
       <c r="R8" t="n">
-        <v>2644.692335115161</v>
+        <v>2644.692335115159</v>
       </c>
       <c r="S8" t="n">
-        <v>2488.477297611989</v>
+        <v>2644.692335115159</v>
       </c>
       <c r="T8" t="n">
-        <v>2273.6774358797</v>
+        <v>2644.692335115159</v>
       </c>
       <c r="U8" t="n">
-        <v>2273.6774358797</v>
+        <v>2644.692335115159</v>
       </c>
       <c r="V8" t="n">
-        <v>2273.6774358797</v>
+        <v>2644.692335115159</v>
       </c>
       <c r="W8" t="n">
-        <v>2273.6774358797</v>
+        <v>2291.923679845044</v>
       </c>
       <c r="X8" t="n">
-        <v>2273.6774358797</v>
+        <v>2291.923679845044</v>
       </c>
       <c r="Y8" t="n">
-        <v>2273.6774358797</v>
+        <v>1901.784347869233</v>
       </c>
     </row>
     <row r="9">
@@ -4869,37 +4869,37 @@
         <v>483.6906371810752</v>
       </c>
       <c r="F9" t="n">
-        <v>337.1560792079602</v>
+        <v>337.1560792079601</v>
       </c>
       <c r="G9" t="n">
         <v>199.7146815671821</v>
       </c>
       <c r="H9" t="n">
-        <v>98.79870371198673</v>
+        <v>98.79870371198669</v>
       </c>
       <c r="I9" t="n">
-        <v>52.89384670230322</v>
+        <v>52.89384670230317</v>
       </c>
       <c r="J9" t="n">
-        <v>52.89384670230322</v>
+        <v>171.5530985591988</v>
       </c>
       <c r="K9" t="n">
-        <v>120.5016663656603</v>
+        <v>500.9815028650087</v>
       </c>
       <c r="L9" t="n">
-        <v>624.8632062317788</v>
+        <v>1005.343042731127</v>
       </c>
       <c r="M9" t="n">
-        <v>984.5368327667936</v>
+        <v>1184.840379085732</v>
       </c>
       <c r="N9" t="n">
-        <v>1639.098185707796</v>
+        <v>1431.121670849305</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.534194460519</v>
+        <v>1980.557679602028</v>
       </c>
       <c r="P9" t="n">
-        <v>2612.501962941355</v>
+        <v>2404.525448082865</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.238904143333</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>387.2883730486756</v>
+        <v>701.5579877375204</v>
       </c>
       <c r="C10" t="n">
-        <v>387.2883730486756</v>
+        <v>701.5579877375204</v>
       </c>
       <c r="D10" t="n">
-        <v>387.2883730486756</v>
+        <v>644.3377932678779</v>
       </c>
       <c r="E10" t="n">
-        <v>239.3752794662824</v>
+        <v>496.4246996854848</v>
       </c>
       <c r="F10" t="n">
-        <v>239.3752794662824</v>
+        <v>349.5347521875744</v>
       </c>
       <c r="G10" t="n">
-        <v>70.76843446166583</v>
+        <v>349.5347521875744</v>
       </c>
       <c r="H10" t="n">
-        <v>70.76843446166583</v>
+        <v>195.2801090873395</v>
       </c>
       <c r="I10" t="n">
-        <v>70.76843446166583</v>
+        <v>70.76843446166578</v>
       </c>
       <c r="J10" t="n">
-        <v>52.89384670230322</v>
+        <v>52.89384670230317</v>
       </c>
       <c r="K10" t="n">
         <v>153.941776297913</v>
@@ -4984,28 +4984,28 @@
         <v>1052.828528161648</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.828528161648</v>
+        <v>922.3505668810506</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.828528161648</v>
+        <v>922.3505668810506</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.828528161648</v>
+        <v>922.3505668810506</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.828528161648</v>
+        <v>922.3505668810506</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.828528161648</v>
+        <v>922.3505668810506</v>
       </c>
       <c r="W10" t="n">
-        <v>789.7294170224454</v>
+        <v>922.3505668810506</v>
       </c>
       <c r="X10" t="n">
-        <v>789.7294170224454</v>
+        <v>922.3505668810506</v>
       </c>
       <c r="Y10" t="n">
-        <v>568.9368378789153</v>
+        <v>701.5579877375204</v>
       </c>
     </row>
     <row r="11">
@@ -5018,40 +5018,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>835.5837926935465</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C13" t="n">
-        <v>666.6476097656396</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>666.6476097656396</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5230,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602294</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.431557602294</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W13" t="n">
-        <v>1466.014387565334</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X13" t="n">
-        <v>1238.024836667316</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.232257523786</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>949.9304447718133</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5464,22 +5464,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.8386896933887</v>
+        <v>1023.721406539404</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9025067654818</v>
+        <v>854.7852236114967</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>704.6685841991609</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2262.058083542867</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2042.456618565808</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1753.381391910006</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.696903704119</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.279733667159</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.279733667159</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.4871545236284</v>
+        <v>1205.369871369643</v>
       </c>
     </row>
     <row r="20">
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5838,16 +5838,16 @@
         <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557277</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6271430859674</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U25" t="n">
-        <v>1870.758369404391</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.073881198505</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1326.656711161544</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>1098.667160263527</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263527</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075802</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6616,16 +6616,16 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,13 +7011,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>221.3431781811722</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
         <v>716.6687843969308</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1366.386875345991</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1918.296605585278</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2341.919755080346</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345469</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384013</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931272</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7424,37 +7424,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>221.3431781811725</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>221.3431781811725</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123336</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319315</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942647</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,13 +7588,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532431</v>
@@ -7603,16 +7603,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
         <v>782.551295565682</v>
@@ -7795,16 +7795,16 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -7982,7 +7982,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>414.4141754569118</v>
+        <v>414.4141754569272</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>13.04286547574729</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>134.6800053082006</v>
+        <v>378.9514182894621</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>414.4141754569118</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>137.2482295762861</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>13.04286547574729</v>
+        <v>13.04286547574793</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>281.9223004182633</v>
+        <v>281.9223004182741</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>260.2797807466239</v>
       </c>
       <c r="O8" t="n">
-        <v>363.9140161287305</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>181.9962527074849</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>460.5097083720582</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>303.3681551074504</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.0516147295368</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.4204908877588</v>
       </c>
       <c r="I2" t="n">
-        <v>123.689478378628</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>8.462026260312115</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.2415595701749</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>228.4321620478007</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>195.5793219172855</v>
       </c>
     </row>
     <row r="3">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>111.8370608760677</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>142.414155035097</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>38.72167599501802</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>69.47507150177341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>74.19629618688158</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>64.34558267474699</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>211.9838267404999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1735436840669</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>202.6501519448735</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-7.247535904753022e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1236388.06021237</v>
+        <v>1236388.060212371</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1236388.06021237</v>
+        <v>1236388.060212371</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1236388.060212371</v>
+        <v>1236388.06021237</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152326.9268048896</v>
+        <v>152326.9268048895</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194637</v>
@@ -26335,25 +26335,25 @@
         <v>181607.9849302514</v>
       </c>
       <c r="J2" t="n">
+        <v>181607.9849302513</v>
+      </c>
+      <c r="K2" t="n">
         <v>181607.9849302514</v>
-      </c>
-      <c r="K2" t="n">
-        <v>181607.9849302513</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194636</v>
       </c>
       <c r="M2" t="n">
+        <v>184734.3982194637</v>
+      </c>
+      <c r="N2" t="n">
+        <v>184734.3982194637</v>
+      </c>
+      <c r="O2" t="n">
+        <v>184734.3982194637</v>
+      </c>
+      <c r="P2" t="n">
         <v>184734.3982194636</v>
-      </c>
-      <c r="N2" t="n">
-        <v>184734.3982194636</v>
-      </c>
-      <c r="O2" t="n">
-        <v>184734.3982194636</v>
-      </c>
-      <c r="P2" t="n">
-        <v>184734.3982194637</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>761165.5885788815</v>
+        <v>761165.5885788784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>28697.84000521271</v>
+        <v>28697.84000521525</v>
       </c>
       <c r="E3" t="n">
-        <v>774968.2996968124</v>
+        <v>774968.2996968126</v>
       </c>
       <c r="F3" t="n">
-        <v>4.831690603168681e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172991.9703322177</v>
+        <v>172991.9703322178</v>
       </c>
       <c r="K3" t="n">
-        <v>4.831690603168681e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363194</v>
       </c>
       <c r="M3" t="n">
-        <v>127476.6190575752</v>
+        <v>127476.6190575753</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107154.1262506733</v>
+        <v>107154.1262506738</v>
       </c>
       <c r="C4" t="n">
-        <v>189363.5381878108</v>
+        <v>189363.5381878113</v>
       </c>
       <c r="D4" t="n">
-        <v>183702.0609696329</v>
+        <v>183702.060969633</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531694955</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
+        <v>6287.480531695058</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6287.480531695067</v>
+      </c>
+      <c r="I4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="H4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="J4" t="n">
-        <v>6287.480531695059</v>
-      </c>
       <c r="K4" t="n">
-        <v>6287.480531695111</v>
+        <v>6287.480531695134</v>
       </c>
       <c r="L4" t="n">
-        <v>14278.33979478853</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="M4" t="n">
-        <v>14278.33979478854</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="N4" t="n">
-        <v>14278.33979478854</v>
+        <v>14278.33979478859</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.33979478853</v>
+        <v>14278.33979478861</v>
       </c>
       <c r="P4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478863</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86034.19957935356</v>
+        <v>86034.1995793535</v>
       </c>
       <c r="C5" t="n">
-        <v>86034.19957935356</v>
+        <v>86034.1995793535</v>
       </c>
       <c r="D5" t="n">
-        <v>86764.70248112027</v>
+        <v>86764.70248112023</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-802026.9876040188</v>
+        <v>-802387.0706197337</v>
       </c>
       <c r="C6" t="n">
-        <v>-90663.33954770063</v>
+        <v>-90663.33954770115</v>
       </c>
       <c r="D6" t="n">
-        <v>-114430.2052365021</v>
+        <v>-114430.2052365047</v>
       </c>
       <c r="E6" t="n">
-        <v>-700770.3251221632</v>
+        <v>-700805.063047599</v>
       </c>
       <c r="F6" t="n">
-        <v>74197.97457464908</v>
+        <v>74163.23664921345</v>
       </c>
       <c r="G6" t="n">
-        <v>74197.9745746492</v>
+        <v>74163.2366492135</v>
       </c>
       <c r="H6" t="n">
-        <v>74197.97457464911</v>
+        <v>74163.23664921345</v>
       </c>
       <c r="I6" t="n">
-        <v>74197.9745746492</v>
+        <v>74163.2366492135</v>
       </c>
       <c r="J6" t="n">
-        <v>-98793.99575756848</v>
+        <v>-98828.73368300435</v>
       </c>
       <c r="K6" t="n">
-        <v>74197.97457464907</v>
+        <v>74163.23664921364</v>
       </c>
       <c r="L6" t="n">
-        <v>47864.22457712793</v>
+        <v>47864.22457712772</v>
       </c>
       <c r="M6" t="n">
-        <v>-60184.67648681546</v>
+        <v>-60184.67648681553</v>
       </c>
       <c r="N6" t="n">
-        <v>67291.94257075971</v>
+        <v>67291.94257075986</v>
       </c>
       <c r="O6" t="n">
-        <v>67291.94257075965</v>
+        <v>67291.94257075974</v>
       </c>
       <c r="P6" t="n">
-        <v>67291.94257075977</v>
+        <v>67291.94257075962</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.9667929175737</v>
+        <v>559.9667929175705</v>
       </c>
       <c r="C3" t="n">
-        <v>559.9667929175737</v>
+        <v>559.9667929175705</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>661.1730837787902</v>
+        <v>661.1730837787904</v>
       </c>
       <c r="C4" t="n">
-        <v>661.1730837787902</v>
+        <v>661.1730837787904</v>
       </c>
       <c r="D4" t="n">
-        <v>661.1730837787902</v>
+        <v>661.1730837787896</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.9667929175737</v>
+        <v>559.9667929175705</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>33.50930742049138</v>
+        <v>33.50930742049457</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>661.1730837787902</v>
+        <v>661.1730837787904</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>511.5352043208581</v>
+        <v>511.5352043208587</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>661.1730837787902</v>
+        <v>661.1730837787904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>511.5352043208584</v>
+        <v>511.5352043208587</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>661.1730837787902</v>
+        <v>661.1730837787904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>511.5352043208581</v>
+        <v>511.5352043208587</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>61.90473666355717</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>157.7226091094244</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.2415595701749</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1655630849886</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>181.7033422581665</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.981203174509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.2493442537775</v>
       </c>
       <c r="I4" t="n">
-        <v>22.79724313490654</v>
+        <v>125.0837511408431</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>21.96800391142777</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.60705752114076</v>
+        <v>1.607057521141243</v>
       </c>
       <c r="R4" t="n">
-        <v>131.8901822333938</v>
+        <v>131.890182233394</v>
       </c>
       <c r="S4" t="n">
-        <v>206.4189530857757</v>
+        <v>206.4189530857758</v>
       </c>
       <c r="T4" t="n">
-        <v>223.631091187769</v>
+        <v>223.6310911877691</v>
       </c>
       <c r="U4" t="n">
         <v>286.2639506555482</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0.8221640191242727</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>364.2462215797926</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>49.01130525446013</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>123.689478378628</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>157.7226091094247</v>
       </c>
       <c r="T5" t="n">
-        <v>213.2415595701749</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1655630849886</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.981203174509</v>
+        <v>156.5026853496465</v>
       </c>
       <c r="H7" t="n">
         <v>153.2493442537775</v>
       </c>
       <c r="I7" t="n">
-        <v>125.083751140843</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>21.96800391142737</v>
+        <v>21.96800391142777</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>131.8901822333938</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>206.4189530857757</v>
+        <v>206.4189530857758</v>
       </c>
       <c r="T7" t="n">
-        <v>223.631091187769</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2639506555482</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>50.72330382070302</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>38.14438394119315</v>
+        <v>7.12201266277475</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>91.96748049326631</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>26.05487830878059</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-9.304853184251746e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.251122785598284</v>
+        <v>2.251122785598272</v>
       </c>
       <c r="H2" t="n">
-        <v>23.05431122800844</v>
+        <v>23.05431122800831</v>
       </c>
       <c r="I2" t="n">
-        <v>86.78641119177794</v>
+        <v>86.78641119177745</v>
       </c>
       <c r="J2" t="n">
-        <v>191.0612325241726</v>
+        <v>191.0612325241715</v>
       </c>
       <c r="K2" t="n">
-        <v>286.351260038548</v>
+        <v>286.3512600385464</v>
       </c>
       <c r="L2" t="n">
-        <v>355.2440589883016</v>
+        <v>355.2440589882996</v>
       </c>
       <c r="M2" t="n">
-        <v>395.2774638266851</v>
+        <v>395.2774638266828</v>
       </c>
       <c r="N2" t="n">
-        <v>401.6734664412662</v>
+        <v>401.6734664412639</v>
       </c>
       <c r="O2" t="n">
-        <v>379.2888642419733</v>
+        <v>379.2888642419711</v>
       </c>
       <c r="P2" t="n">
-        <v>323.7142704725155</v>
+        <v>323.7142704725137</v>
       </c>
       <c r="Q2" t="n">
-        <v>243.0959357132769</v>
+        <v>243.0959357132755</v>
       </c>
       <c r="R2" t="n">
-        <v>141.4070916808384</v>
+        <v>141.4070916808376</v>
       </c>
       <c r="S2" t="n">
-        <v>51.29746047682096</v>
+        <v>51.29746047682067</v>
       </c>
       <c r="T2" t="n">
-        <v>9.854289993956495</v>
+        <v>9.854289993956439</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1800898228478627</v>
+        <v>0.1800898228478617</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.20445687533214</v>
+        <v>1.204456875332133</v>
       </c>
       <c r="H3" t="n">
-        <v>11.63251771702356</v>
+        <v>11.63251771702349</v>
       </c>
       <c r="I3" t="n">
-        <v>41.46923890946183</v>
+        <v>41.46923890946159</v>
       </c>
       <c r="J3" t="n">
-        <v>113.7947611909194</v>
+        <v>113.7947611909188</v>
       </c>
       <c r="K3" t="n">
-        <v>194.4933718381727</v>
+        <v>194.4933718381716</v>
       </c>
       <c r="L3" t="n">
-        <v>261.5203404092877</v>
+        <v>261.5203404092861</v>
       </c>
       <c r="M3" t="n">
-        <v>305.1819021400776</v>
+        <v>305.1819021400759</v>
       </c>
       <c r="N3" t="n">
-        <v>313.259158992634</v>
+        <v>313.2591589926322</v>
       </c>
       <c r="O3" t="n">
-        <v>286.5709303339587</v>
+        <v>286.5709303339571</v>
       </c>
       <c r="P3" t="n">
-        <v>229.9984361325031</v>
+        <v>229.9984361325018</v>
       </c>
       <c r="Q3" t="n">
-        <v>153.7478635950289</v>
+        <v>153.7478635950281</v>
       </c>
       <c r="R3" t="n">
-        <v>74.78198038246393</v>
+        <v>74.7819803824635</v>
       </c>
       <c r="S3" t="n">
-        <v>22.37225818873512</v>
+        <v>22.372258188735</v>
       </c>
       <c r="T3" t="n">
-        <v>4.854806440483491</v>
+        <v>4.854806440483463</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07924058390343028</v>
+        <v>0.07924058390342982</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.009776183949723</v>
+        <v>1.009776183949717</v>
       </c>
       <c r="H4" t="n">
-        <v>8.977828253662089</v>
+        <v>8.977828253662038</v>
       </c>
       <c r="I4" t="n">
-        <v>30.36672378641531</v>
+        <v>30.36672378641514</v>
       </c>
       <c r="J4" t="n">
-        <v>71.3911762052454</v>
+        <v>71.391176205245</v>
       </c>
       <c r="K4" t="n">
-        <v>117.3176330079769</v>
+        <v>117.3176330079762</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1261792028525</v>
+        <v>150.1261792028516</v>
       </c>
       <c r="M4" t="n">
-        <v>158.2870067258643</v>
+        <v>158.2870067258634</v>
       </c>
       <c r="N4" t="n">
-        <v>154.5232954947791</v>
+        <v>154.5232954947782</v>
       </c>
       <c r="O4" t="n">
-        <v>142.7272737095482</v>
+        <v>142.7272737095473</v>
       </c>
       <c r="P4" t="n">
-        <v>122.1278395569737</v>
+        <v>122.127839556973</v>
       </c>
       <c r="Q4" t="n">
-        <v>84.55498573055362</v>
+        <v>84.55498573055314</v>
       </c>
       <c r="R4" t="n">
-        <v>45.40320914377571</v>
+        <v>45.40320914377546</v>
       </c>
       <c r="S4" t="n">
-        <v>17.59764495119653</v>
+        <v>17.59764495119643</v>
       </c>
       <c r="T4" t="n">
-        <v>4.314498240512451</v>
+        <v>4.314498240512427</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05507870094271222</v>
+        <v>0.05507870094271191</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.251122785598284</v>
+        <v>2.251122785598272</v>
       </c>
       <c r="H5" t="n">
-        <v>23.05431122800844</v>
+        <v>23.05431122800831</v>
       </c>
       <c r="I5" t="n">
-        <v>86.78641119177794</v>
+        <v>86.78641119177745</v>
       </c>
       <c r="J5" t="n">
-        <v>191.0612325241726</v>
+        <v>191.0612325241715</v>
       </c>
       <c r="K5" t="n">
-        <v>286.351260038548</v>
+        <v>286.3512600385464</v>
       </c>
       <c r="L5" t="n">
-        <v>355.2440589883016</v>
+        <v>355.2440589882996</v>
       </c>
       <c r="M5" t="n">
-        <v>395.2774638266851</v>
+        <v>395.2774638266828</v>
       </c>
       <c r="N5" t="n">
-        <v>401.6734664412662</v>
+        <v>401.6734664412639</v>
       </c>
       <c r="O5" t="n">
-        <v>379.2888642419733</v>
+        <v>379.2888642419711</v>
       </c>
       <c r="P5" t="n">
-        <v>323.7142704725155</v>
+        <v>323.7142704725137</v>
       </c>
       <c r="Q5" t="n">
-        <v>243.0959357132769</v>
+        <v>243.0959357132755</v>
       </c>
       <c r="R5" t="n">
-        <v>141.4070916808384</v>
+        <v>141.4070916808376</v>
       </c>
       <c r="S5" t="n">
-        <v>51.29746047682096</v>
+        <v>51.29746047682067</v>
       </c>
       <c r="T5" t="n">
-        <v>9.854289993956495</v>
+        <v>9.854289993956439</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1800898228478627</v>
+        <v>0.1800898228478617</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.20445687533214</v>
+        <v>1.204456875332133</v>
       </c>
       <c r="H6" t="n">
-        <v>11.63251771702356</v>
+        <v>11.63251771702349</v>
       </c>
       <c r="I6" t="n">
-        <v>41.46923890946183</v>
+        <v>41.46923890946159</v>
       </c>
       <c r="J6" t="n">
-        <v>113.7947611909194</v>
+        <v>113.7947611909188</v>
       </c>
       <c r="K6" t="n">
-        <v>194.4933718381727</v>
+        <v>194.4933718381716</v>
       </c>
       <c r="L6" t="n">
-        <v>261.5203404092877</v>
+        <v>261.5203404092861</v>
       </c>
       <c r="M6" t="n">
-        <v>305.1819021400776</v>
+        <v>305.1819021400759</v>
       </c>
       <c r="N6" t="n">
-        <v>313.259158992634</v>
+        <v>313.2591589926322</v>
       </c>
       <c r="O6" t="n">
-        <v>286.5709303339587</v>
+        <v>286.5709303339571</v>
       </c>
       <c r="P6" t="n">
-        <v>229.9984361325031</v>
+        <v>229.9984361325018</v>
       </c>
       <c r="Q6" t="n">
-        <v>153.7478635950289</v>
+        <v>153.7478635950281</v>
       </c>
       <c r="R6" t="n">
-        <v>74.78198038246393</v>
+        <v>74.7819803824635</v>
       </c>
       <c r="S6" t="n">
-        <v>22.37225818873512</v>
+        <v>22.372258188735</v>
       </c>
       <c r="T6" t="n">
-        <v>4.854806440483491</v>
+        <v>4.854806440483463</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07924058390343028</v>
+        <v>0.07924058390342982</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.009776183949723</v>
+        <v>1.009776183949717</v>
       </c>
       <c r="H7" t="n">
-        <v>8.977828253662089</v>
+        <v>8.977828253662038</v>
       </c>
       <c r="I7" t="n">
-        <v>30.36672378641531</v>
+        <v>30.36672378641514</v>
       </c>
       <c r="J7" t="n">
-        <v>71.3911762052454</v>
+        <v>71.391176205245</v>
       </c>
       <c r="K7" t="n">
-        <v>117.3176330079769</v>
+        <v>117.3176330079762</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1261792028525</v>
+        <v>150.1261792028516</v>
       </c>
       <c r="M7" t="n">
-        <v>158.2870067258643</v>
+        <v>158.2870067258634</v>
       </c>
       <c r="N7" t="n">
-        <v>154.5232954947791</v>
+        <v>154.5232954947782</v>
       </c>
       <c r="O7" t="n">
-        <v>142.7272737095482</v>
+        <v>142.7272737095473</v>
       </c>
       <c r="P7" t="n">
-        <v>122.1278395569737</v>
+        <v>122.127839556973</v>
       </c>
       <c r="Q7" t="n">
-        <v>84.55498573055362</v>
+        <v>84.55498573055314</v>
       </c>
       <c r="R7" t="n">
-        <v>45.40320914377571</v>
+        <v>45.40320914377546</v>
       </c>
       <c r="S7" t="n">
-        <v>17.59764495119653</v>
+        <v>17.59764495119643</v>
       </c>
       <c r="T7" t="n">
-        <v>4.314498240512451</v>
+        <v>4.314498240512427</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05507870094271222</v>
+        <v>0.05507870094271191</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,19 +32072,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>513.0745614164389</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940687</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33257,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>579.529959444714</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>264.8708611242914</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33971,37 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>353.2560498238282</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>255.6522884173745</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>555.1777416630679</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>355.4083096598248</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>179.11194316956</v>
+        <v>179.111943169559</v>
       </c>
       <c r="K2" t="n">
-        <v>390.4068215647322</v>
+        <v>390.4068215647306</v>
       </c>
       <c r="L2" t="n">
-        <v>533.8918194752262</v>
+        <v>533.8918194752396</v>
       </c>
       <c r="M2" t="n">
-        <v>164.9312305994123</v>
+        <v>164.9312305994101</v>
       </c>
       <c r="N2" t="n">
-        <v>172.2604028446753</v>
+        <v>172.260402844673</v>
       </c>
       <c r="O2" t="n">
-        <v>529.9908340830319</v>
+        <v>529.9908340830298</v>
       </c>
       <c r="P2" t="n">
-        <v>414.2799828887286</v>
+        <v>414.2799828887268</v>
       </c>
       <c r="Q2" t="n">
-        <v>233.1052364987321</v>
+        <v>233.1052364987307</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>113.0481698646609</v>
       </c>
       <c r="K3" t="n">
-        <v>321.1171698763924</v>
+        <v>321.1171698763912</v>
       </c>
       <c r="L3" t="n">
-        <v>493.8063059328726</v>
+        <v>493.8063059328711</v>
       </c>
       <c r="M3" t="n">
-        <v>628.7529319680592</v>
+        <v>163.0478682180575</v>
       </c>
       <c r="N3" t="n">
-        <v>316.5974522175013</v>
+        <v>560.868865198761</v>
       </c>
       <c r="O3" t="n">
-        <v>537.8370051662438</v>
+        <v>537.8370051662421</v>
       </c>
       <c r="P3" t="n">
-        <v>96.02402871817281</v>
+        <v>414.4867973581087</v>
       </c>
       <c r="Q3" t="n">
-        <v>223.8433772448565</v>
+        <v>13.76608950900655</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>95.04814118209403</v>
+        <v>95.04814118209336</v>
       </c>
       <c r="L4" t="n">
-        <v>177.7162044631686</v>
+        <v>177.7162044631677</v>
       </c>
       <c r="M4" t="n">
-        <v>197.8708836877049</v>
+        <v>197.870883687704</v>
       </c>
       <c r="N4" t="n">
-        <v>198.6554678740077</v>
+        <v>198.6554678740068</v>
       </c>
       <c r="O4" t="n">
-        <v>167.3124016235878</v>
+        <v>167.312401623587</v>
       </c>
       <c r="P4" t="n">
-        <v>119.4063988218672</v>
+        <v>119.4063988218665</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>179.11194316956</v>
+        <v>10.0153279974852</v>
       </c>
       <c r="K5" t="n">
-        <v>390.4068215647322</v>
+        <v>66.26140899356585</v>
       </c>
       <c r="L5" t="n">
-        <v>533.8918194752262</v>
+        <v>537.1388585687628</v>
       </c>
       <c r="M5" t="n">
-        <v>164.9312305994123</v>
+        <v>614.4447640922426</v>
       </c>
       <c r="N5" t="n">
-        <v>172.2604028446753</v>
+        <v>609.6073272566572</v>
       </c>
       <c r="O5" t="n">
-        <v>529.9908340830319</v>
+        <v>529.9908340830298</v>
       </c>
       <c r="P5" t="n">
-        <v>414.2799828887286</v>
+        <v>229.7295042935303</v>
       </c>
       <c r="Q5" t="n">
-        <v>233.1052364987321</v>
+        <v>20.79024583882605</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>321.1171698763924</v>
+        <v>321.1171698763912</v>
       </c>
       <c r="L6" t="n">
-        <v>493.8063059328726</v>
+        <v>493.8063059328711</v>
       </c>
       <c r="M6" t="n">
-        <v>163.0478682180593</v>
+        <v>163.0478682180575</v>
       </c>
       <c r="N6" t="n">
-        <v>463.8397473275639</v>
+        <v>463.8397473275729</v>
       </c>
       <c r="O6" t="n">
-        <v>537.8370051662438</v>
+        <v>537.8370051662421</v>
       </c>
       <c r="P6" t="n">
-        <v>414.48679735811</v>
+        <v>414.4867973581087</v>
       </c>
       <c r="Q6" t="n">
-        <v>223.8433772448565</v>
+        <v>223.8433772448556</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>95.04814118209403</v>
+        <v>95.04814118209336</v>
       </c>
       <c r="L7" t="n">
-        <v>177.7162044631686</v>
+        <v>177.7162044631677</v>
       </c>
       <c r="M7" t="n">
-        <v>197.8708836877049</v>
+        <v>197.870883687704</v>
       </c>
       <c r="N7" t="n">
-        <v>198.6554678740077</v>
+        <v>198.6554678740068</v>
       </c>
       <c r="O7" t="n">
-        <v>167.3124016235878</v>
+        <v>167.312401623587</v>
       </c>
       <c r="P7" t="n">
-        <v>119.4063988218672</v>
+        <v>119.4063988218665</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>456.5769654860001</v>
       </c>
       <c r="O8" t="n">
-        <v>535.8019204892956</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>363.3066934697119</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>661.1730837787902</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>374.5201816365647</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962425</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648398</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>127.0294221499325</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>213.2742757378066</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,16 +37707,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>128.8146617507078</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>416.6233618831937</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>213.2742757378065</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
@@ -38181,16 +38181,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
         <v>144.686904791938</v>
